--- a/Pregunta1/algoritmo genetico.xlsx
+++ b/Pregunta1/algoritmo genetico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vmont\Documents\estudios\examen354-2P\Pregunta1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF0B4FD3-AC5A-4E20-97D3-73FB14BE0E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E80A9EA-9C32-4104-82F8-31CB216D75A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="30">
   <si>
     <t>x</t>
   </si>
@@ -242,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -261,6 +261,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -549,6 +552,7 @@
   <cols>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -595,8 +599,9 @@
         <f>DEC2BIN(B2)</f>
         <v>110001</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>22</v>
+      <c r="E2" s="8" t="str">
+        <f>DEC2BIN(B2,6)</f>
+        <v>110001</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>25</v>
@@ -617,15 +622,16 @@
         <v>45</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C35" si="0">1+LOG(A3^2)</f>
+        <f t="shared" ref="C3:C33" si="0">1+LOG(A3^2)</f>
         <v>2.204119982655925</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D11" si="1">DEC2BIN(B3)</f>
+        <f t="shared" ref="D3:D9" si="1">DEC2BIN(B3)</f>
         <v>101101</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>23</v>
+      <c r="E3" s="8" t="str">
+        <f t="shared" ref="E3:E33" si="2">DEC2BIN(B3,6)</f>
+        <v>101101</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>26</v>
@@ -634,7 +640,7 @@
         <v>27</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I11" si="2">BIN2DEC(H3)</f>
+        <f t="shared" ref="I3:I9" si="3">BIN2DEC(H3)</f>
         <v>37</v>
       </c>
     </row>
@@ -653,8 +659,9 @@
         <f t="shared" si="1"/>
         <v>1111</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
+      <c r="E4" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>001111</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>14</v>
@@ -663,7 +670,7 @@
         <v>5</v>
       </c>
       <c r="I4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
@@ -682,8 +689,9 @@
         <f t="shared" si="1"/>
         <v>1011</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>24</v>
+      <c r="E5" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>001011</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>24</v>
@@ -692,7 +700,7 @@
         <v>8</v>
       </c>
       <c r="I5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -711,8 +719,9 @@
         <f t="shared" si="1"/>
         <v>1001</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>18</v>
+      <c r="E6" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>001001</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>11</v>
@@ -721,7 +730,7 @@
         <v>12</v>
       </c>
       <c r="I6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -740,8 +749,9 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>7</v>
+      <c r="E7" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>000100</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>6</v>
@@ -750,7 +760,7 @@
         <v>15</v>
       </c>
       <c r="I7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
     </row>
@@ -769,8 +779,9 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>8</v>
+      <c r="E8" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>000011</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>19</v>
@@ -779,7 +790,7 @@
         <v>18</v>
       </c>
       <c r="I8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
@@ -799,8 +810,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>19</v>
+      <c r="E9" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>000001</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>8</v>
@@ -809,22 +821,26 @@
         <v>24</v>
       </c>
       <c r="I9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E10" s="1"/>
+      <c r="E10" s="8"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E11" s="5"/>
+      <c r="E11" s="8"/>
       <c r="F11" s="6"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E12" s="8"/>
+    </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E13" s="8"/>
       <c r="F13" s="7" t="s">
         <v>17</v>
       </c>
@@ -844,8 +860,9 @@
         <f>+DEC2BIN(B14)</f>
         <v>111001</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>28</v>
+      <c r="E14" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>111001</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>28</v>
@@ -870,11 +887,12 @@
         <v>4.13640344813399</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" ref="D15:E23" si="3">+DEC2BIN(B15)</f>
+        <f t="shared" ref="D15:D21" si="4">+DEC2BIN(B15)</f>
         <v>100101</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>27</v>
+      <c r="E15" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>100101</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>27</v>
@@ -883,7 +901,7 @@
         <v>23</v>
       </c>
       <c r="I15">
-        <f t="shared" ref="I15:I23" si="4">BIN2DEC(H15)</f>
+        <f t="shared" ref="I15:I21" si="5">BIN2DEC(H15)</f>
         <v>45</v>
       </c>
     </row>
@@ -899,11 +917,12 @@
         <v>2.6901960800285138</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1101</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>15</v>
+      <c r="E16" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>001101</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>14</v>
@@ -912,7 +931,7 @@
         <v>5</v>
       </c>
       <c r="I16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
     </row>
@@ -928,11 +947,12 @@
         <v>1.9542425094393248</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1011</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>24</v>
+      <c r="E17" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>001011</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>18</v>
@@ -941,7 +961,7 @@
         <v>19</v>
       </c>
       <c r="I17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -956,11 +976,12 @@
         <v>0</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1001</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>18</v>
+      <c r="E18" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>001001</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>24</v>
@@ -969,7 +990,7 @@
         <v>8</v>
       </c>
       <c r="I18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
@@ -985,11 +1006,12 @@
         <v>3.2278867046136734</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>111</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>5</v>
+      <c r="E19" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>000111</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>6</v>
@@ -998,7 +1020,7 @@
         <v>15</v>
       </c>
       <c r="I19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
     </row>
@@ -1014,11 +1036,12 @@
         <v>2.9084850188786495</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>8</v>
+      <c r="E20" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>000011</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>12</v>
@@ -1027,7 +1050,7 @@
         <v>11</v>
       </c>
       <c r="I20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
@@ -1043,11 +1066,12 @@
         <v>3.0827853703164503</v>
       </c>
       <c r="D21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>12</v>
+      <c r="E21" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>000000</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>8</v>
@@ -1056,21 +1080,25 @@
         <v>24</v>
       </c>
       <c r="I21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E22" s="1"/>
+      <c r="E22" s="8"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E23" s="5"/>
+      <c r="E23" s="8"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E24" s="8"/>
+    </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E25" s="8"/>
       <c r="F25" s="7" t="s">
         <v>20</v>
       </c>
@@ -1090,8 +1118,9 @@
         <f>DEC2BIN(B26)</f>
         <v>110001</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>22</v>
+      <c r="E26" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>110001</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>22</v>
@@ -1116,11 +1145,12 @@
         <v>4.3064250275506879</v>
       </c>
       <c r="D27" t="str">
-        <f t="shared" ref="D27:D35" si="5">DEC2BIN(B27)</f>
+        <f t="shared" ref="D27:D33" si="6">DEC2BIN(B27)</f>
         <v>101101</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>23</v>
+      <c r="E27" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>101101</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>23</v>
@@ -1129,7 +1159,7 @@
         <v>27</v>
       </c>
       <c r="I27">
-        <f t="shared" ref="I27:I35" si="6">BIN2DEC(H27)</f>
+        <f t="shared" ref="I27:I33" si="7">BIN2DEC(H27)</f>
         <v>37</v>
       </c>
     </row>
@@ -1145,11 +1175,12 @@
         <v>2.6901960800285138</v>
       </c>
       <c r="D28" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1101</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>15</v>
+      <c r="E28" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>001101</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>14</v>
@@ -1158,7 +1189,7 @@
         <v>5</v>
       </c>
       <c r="I28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
     </row>
@@ -1174,11 +1205,12 @@
         <v>1</v>
       </c>
       <c r="D29" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1011</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>24</v>
+      <c r="E29" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>001011</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>18</v>
@@ -1187,7 +1219,7 @@
         <v>19</v>
       </c>
       <c r="I29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -1203,11 +1235,12 @@
         <v>1.9542425094393248</v>
       </c>
       <c r="D30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>11</v>
+      <c r="E30" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>001000</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>24</v>
@@ -1216,7 +1249,7 @@
         <v>8</v>
       </c>
       <c r="I30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
     </row>
@@ -1232,11 +1265,12 @@
         <v>3.2278867046136734</v>
       </c>
       <c r="D31" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>111</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>5</v>
+      <c r="E31" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>000111</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>7</v>
@@ -1245,7 +1279,7 @@
         <v>4</v>
       </c>
       <c r="I31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
     </row>
@@ -1261,11 +1295,12 @@
         <v>2.8061799739838871</v>
       </c>
       <c r="D32" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>8</v>
+      <c r="E32" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>000011</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>19</v>
@@ -1274,7 +1309,7 @@
         <v>18</v>
       </c>
       <c r="I32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
     </row>
@@ -1290,11 +1325,12 @@
         <v>3.0827853703164503</v>
       </c>
       <c r="D33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>19</v>
+      <c r="E33" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>000001</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>8</v>
@@ -1303,7 +1339,7 @@
         <v>24</v>
       </c>
       <c r="I33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
     </row>
@@ -1322,6 +1358,6 @@
     <sortCondition descending="1" ref="B2:B9"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>